--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Il17c-Il17re.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Il17c-Il17re.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,7 +528,7 @@
         <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>3</v>
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.8163016666666666</v>
+        <v>0.8238633333333333</v>
       </c>
       <c r="H2">
-        <v>2.448905</v>
+        <v>2.47159</v>
       </c>
       <c r="I2">
-        <v>0.2413881986261334</v>
+        <v>0.2181573957783601</v>
       </c>
       <c r="J2">
-        <v>0.2413881986261334</v>
+        <v>0.2181573957783601</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.261563</v>
+        <v>0.09324366666666667</v>
       </c>
       <c r="N2">
-        <v>0.784689</v>
+        <v>0.279731</v>
       </c>
       <c r="O2">
-        <v>0.6814079908299105</v>
+        <v>0.1594970327830716</v>
       </c>
       <c r="P2">
-        <v>0.6814079908299104</v>
+        <v>0.1594970327830716</v>
       </c>
       <c r="Q2">
-        <v>0.2135143128383333</v>
+        <v>0.07682003803222222</v>
       </c>
       <c r="R2">
-        <v>1.921628815545</v>
+        <v>0.69138034229</v>
       </c>
       <c r="S2">
-        <v>0.164483847435885</v>
+        <v>0.03479545730633063</v>
       </c>
       <c r="T2">
-        <v>0.1644838474358849</v>
+        <v>0.03479545730633063</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,7 +590,7 @@
         <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3">
         <v>3</v>
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.8163016666666666</v>
+        <v>0.8238633333333333</v>
       </c>
       <c r="H3">
-        <v>2.448905</v>
+        <v>2.47159</v>
       </c>
       <c r="I3">
-        <v>0.2413881986261334</v>
+        <v>0.2181573957783601</v>
       </c>
       <c r="J3">
-        <v>0.2413881986261334</v>
+        <v>0.2181573957783601</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -617,28 +617,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.1205726666666667</v>
+        <v>0.261563</v>
       </c>
       <c r="N3">
-        <v>0.361718</v>
+        <v>0.784689</v>
       </c>
       <c r="O3">
-        <v>0.3141085648288858</v>
+        <v>0.4474140054463598</v>
       </c>
       <c r="P3">
-        <v>0.3141085648288858</v>
+        <v>0.4474140054463597</v>
       </c>
       <c r="Q3">
-        <v>0.09842366875444444</v>
+        <v>0.2154921650566667</v>
       </c>
       <c r="R3">
-        <v>0.8858130187900001</v>
+        <v>1.93942948551</v>
       </c>
       <c r="S3">
-        <v>0.0758221006370848</v>
+        <v>0.09760667426294288</v>
       </c>
       <c r="T3">
-        <v>0.0758221006370848</v>
+        <v>0.09760667426294288</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,7 +652,7 @@
         <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -661,51 +661,51 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.8163016666666666</v>
+        <v>0.8238633333333333</v>
       </c>
       <c r="H4">
-        <v>2.448905</v>
+        <v>2.47159</v>
       </c>
       <c r="I4">
-        <v>0.2413881986261334</v>
+        <v>0.2181573957783601</v>
       </c>
       <c r="J4">
-        <v>0.2413881986261334</v>
+        <v>0.2181573957783601</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.001721</v>
+        <v>0.142436</v>
       </c>
       <c r="N4">
-        <v>0.005162999999999999</v>
+        <v>0.427308</v>
       </c>
       <c r="O4">
-        <v>0.004483444341203747</v>
+        <v>0.2436424925534487</v>
       </c>
       <c r="P4">
-        <v>0.004483444341203747</v>
+        <v>0.2436424925534487</v>
       </c>
       <c r="Q4">
-        <v>0.001404855168333333</v>
+        <v>0.1173477977466667</v>
       </c>
       <c r="R4">
-        <v>0.012643696515</v>
+        <v>1.05613017972</v>
       </c>
       <c r="S4">
-        <v>0.001082250553163704</v>
+        <v>0.05315241167640887</v>
       </c>
       <c r="T4">
-        <v>0.001082250553163704</v>
+        <v>0.05315241167640887</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>24</v>
@@ -714,7 +714,7 @@
         <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -723,46 +723,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.210478333333333</v>
+        <v>0.8238633333333333</v>
       </c>
       <c r="H5">
-        <v>3.631435</v>
+        <v>2.47159</v>
       </c>
       <c r="I5">
-        <v>0.3579500034006599</v>
+        <v>0.2181573957783601</v>
       </c>
       <c r="J5">
-        <v>0.3579500034006598</v>
+        <v>0.2181573957783601</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.261563</v>
+        <v>0.087368</v>
       </c>
       <c r="N5">
-        <v>0.784689</v>
+        <v>0.262104</v>
       </c>
       <c r="O5">
-        <v>0.6814079908299105</v>
+        <v>0.14944646921712</v>
       </c>
       <c r="P5">
-        <v>0.6814079908299104</v>
+        <v>0.14944646921712</v>
       </c>
       <c r="Q5">
-        <v>0.3166163443016666</v>
+        <v>0.07197929170666666</v>
       </c>
       <c r="R5">
-        <v>2.849547098715</v>
+        <v>0.64781362536</v>
       </c>
       <c r="S5">
-        <v>0.2439099926348033</v>
+        <v>0.03260285253267776</v>
       </c>
       <c r="T5">
-        <v>0.2439099926348032</v>
+        <v>0.03260285253267776</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,7 +776,7 @@
         <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -791,10 +791,10 @@
         <v>3.631435</v>
       </c>
       <c r="I6">
-        <v>0.3579500034006599</v>
+        <v>0.3205322899584435</v>
       </c>
       <c r="J6">
-        <v>0.3579500034006598</v>
+        <v>0.3205322899584435</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.1205726666666667</v>
+        <v>0.09324366666666667</v>
       </c>
       <c r="N6">
-        <v>0.361718</v>
+        <v>0.279731</v>
       </c>
       <c r="O6">
-        <v>0.3141085648288858</v>
+        <v>0.1594970327830716</v>
       </c>
       <c r="P6">
-        <v>0.3141085648288858</v>
+        <v>0.1594970327830716</v>
       </c>
       <c r="Q6">
-        <v>0.1459506005922222</v>
+        <v>0.1128694382205556</v>
       </c>
       <c r="R6">
-        <v>1.31355540533</v>
+        <v>1.015824943985</v>
       </c>
       <c r="S6">
-        <v>0.1124351618486761</v>
+        <v>0.05112394915953487</v>
       </c>
       <c r="T6">
-        <v>0.1124351618486761</v>
+        <v>0.05112394915953487</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,7 +838,7 @@
         <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -853,45 +853,45 @@
         <v>3.631435</v>
       </c>
       <c r="I7">
-        <v>0.3579500034006599</v>
+        <v>0.3205322899584435</v>
       </c>
       <c r="J7">
-        <v>0.3579500034006598</v>
+        <v>0.3205322899584435</v>
       </c>
       <c r="K7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L7">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M7">
-        <v>0.001721</v>
+        <v>0.261563</v>
       </c>
       <c r="N7">
-        <v>0.005162999999999999</v>
+        <v>0.784689</v>
       </c>
       <c r="O7">
-        <v>0.004483444341203747</v>
+        <v>0.4474140054463598</v>
       </c>
       <c r="P7">
-        <v>0.004483444341203747</v>
+        <v>0.4474140054463597</v>
       </c>
       <c r="Q7">
-        <v>0.002083233211666666</v>
+        <v>0.3166163443016666</v>
       </c>
       <c r="R7">
-        <v>0.018749098905</v>
+        <v>2.849547098715</v>
       </c>
       <c r="S7">
-        <v>0.001604848917180551</v>
+        <v>0.1434106357252012</v>
       </c>
       <c r="T7">
-        <v>0.00160484891718055</v>
+        <v>0.1434106357252012</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>24</v>
@@ -900,25 +900,25 @@
         <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G8">
-        <v>0.144104</v>
+        <v>1.210478333333333</v>
       </c>
       <c r="H8">
-        <v>0.432312</v>
+        <v>3.631435</v>
       </c>
       <c r="I8">
-        <v>0.0426129290129511</v>
+        <v>0.3205322899584435</v>
       </c>
       <c r="J8">
-        <v>0.0426129290129511</v>
+        <v>0.3205322899584435</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,33 +927,33 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.261563</v>
+        <v>0.142436</v>
       </c>
       <c r="N8">
-        <v>0.784689</v>
+        <v>0.427308</v>
       </c>
       <c r="O8">
-        <v>0.6814079908299105</v>
+        <v>0.2436424925534487</v>
       </c>
       <c r="P8">
-        <v>0.6814079908299104</v>
+        <v>0.2436424925534487</v>
       </c>
       <c r="Q8">
-        <v>0.037692274552</v>
+        <v>0.1724156918866667</v>
       </c>
       <c r="R8">
-        <v>0.339230470968</v>
+        <v>1.55174122698</v>
       </c>
       <c r="S8">
-        <v>0.02903679034209261</v>
+        <v>0.07809528606933992</v>
       </c>
       <c r="T8">
-        <v>0.02903679034209261</v>
+        <v>0.07809528606933992</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>24</v>
@@ -962,55 +962,55 @@
         <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>1.210478333333333</v>
+      </c>
+      <c r="H9">
+        <v>3.631435</v>
+      </c>
+      <c r="I9">
+        <v>0.3205322899584435</v>
+      </c>
+      <c r="J9">
+        <v>0.3205322899584435</v>
+      </c>
+      <c r="K9">
         <v>2</v>
       </c>
-      <c r="F9">
+      <c r="L9">
         <v>0.6666666666666666</v>
       </c>
-      <c r="G9">
-        <v>0.144104</v>
-      </c>
-      <c r="H9">
-        <v>0.432312</v>
-      </c>
-      <c r="I9">
-        <v>0.0426129290129511</v>
-      </c>
-      <c r="J9">
-        <v>0.0426129290129511</v>
-      </c>
-      <c r="K9">
-        <v>3</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
       <c r="M9">
-        <v>0.1205726666666667</v>
+        <v>0.087368</v>
       </c>
       <c r="N9">
-        <v>0.361718</v>
+        <v>0.262104</v>
       </c>
       <c r="O9">
-        <v>0.3141085648288858</v>
+        <v>0.14944646921712</v>
       </c>
       <c r="P9">
-        <v>0.3141085648288858</v>
+        <v>0.14944646921712</v>
       </c>
       <c r="Q9">
-        <v>0.01737500355733334</v>
+        <v>0.1057570710266667</v>
       </c>
       <c r="R9">
-        <v>0.156375032016</v>
+        <v>0.9518136392400001</v>
       </c>
       <c r="S9">
-        <v>0.01338508597541326</v>
+        <v>0.04790241900436751</v>
       </c>
       <c r="T9">
-        <v>0.01338508597541326</v>
+        <v>0.0479024190043675</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,60 +1024,60 @@
         <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G10">
-        <v>0.144104</v>
+        <v>0.316433</v>
       </c>
       <c r="H10">
-        <v>0.432312</v>
+        <v>0.9492990000000001</v>
       </c>
       <c r="I10">
-        <v>0.0426129290129511</v>
+        <v>0.0837908381466997</v>
       </c>
       <c r="J10">
-        <v>0.0426129290129511</v>
+        <v>0.0837908381466997</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>0.001721</v>
+        <v>0.09324366666666667</v>
       </c>
       <c r="N10">
-        <v>0.005162999999999999</v>
+        <v>0.279731</v>
       </c>
       <c r="O10">
-        <v>0.004483444341203747</v>
+        <v>0.1594970327830716</v>
       </c>
       <c r="P10">
-        <v>0.004483444341203747</v>
+        <v>0.1594970327830716</v>
       </c>
       <c r="Q10">
-        <v>0.000248002984</v>
+        <v>0.02950537317433334</v>
       </c>
       <c r="R10">
-        <v>0.002232026856</v>
+        <v>0.2655483585690001</v>
       </c>
       <c r="S10">
-        <v>0.0001910526954452326</v>
+        <v>0.01336439005880521</v>
       </c>
       <c r="T10">
-        <v>0.0001910526954452326</v>
+        <v>0.01336439005880521</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
         <v>24</v>
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>1.210812666666667</v>
+        <v>0.316433</v>
       </c>
       <c r="H11">
-        <v>3.632438</v>
+        <v>0.9492990000000001</v>
       </c>
       <c r="I11">
-        <v>0.3580488689602556</v>
+        <v>0.0837908381466997</v>
       </c>
       <c r="J11">
-        <v>0.3580488689602556</v>
+        <v>0.0837908381466997</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,27 +1119,27 @@
         <v>0.784689</v>
       </c>
       <c r="O11">
-        <v>0.6814079908299105</v>
+        <v>0.4474140054463598</v>
       </c>
       <c r="P11">
-        <v>0.6814079908299104</v>
+        <v>0.4474140054463597</v>
       </c>
       <c r="Q11">
-        <v>0.3167037935313333</v>
+        <v>0.08276716477900001</v>
       </c>
       <c r="R11">
-        <v>2.850334141782</v>
+        <v>0.7449044830110001</v>
       </c>
       <c r="S11">
-        <v>0.2439773604171297</v>
+        <v>0.03748919451492255</v>
       </c>
       <c r="T11">
-        <v>0.2439773604171297</v>
+        <v>0.03748919451492255</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
         <v>24</v>
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1.210812666666667</v>
+        <v>0.316433</v>
       </c>
       <c r="H12">
-        <v>3.632438</v>
+        <v>0.9492990000000001</v>
       </c>
       <c r="I12">
-        <v>0.3580488689602556</v>
+        <v>0.0837908381466997</v>
       </c>
       <c r="J12">
-        <v>0.3580488689602556</v>
+        <v>0.0837908381466997</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,33 +1175,33 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.1205726666666667</v>
+        <v>0.142436</v>
       </c>
       <c r="N12">
-        <v>0.361718</v>
+        <v>0.427308</v>
       </c>
       <c r="O12">
-        <v>0.3141085648288858</v>
+        <v>0.2436424925534487</v>
       </c>
       <c r="P12">
-        <v>0.3141085648288858</v>
+        <v>0.2436424925534487</v>
       </c>
       <c r="Q12">
-        <v>0.1459909120537778</v>
+        <v>0.045071450788</v>
       </c>
       <c r="R12">
-        <v>1.313918208484</v>
+        <v>0.405643057092</v>
       </c>
       <c r="S12">
-        <v>0.1124662163677117</v>
+        <v>0.02041500865920451</v>
       </c>
       <c r="T12">
-        <v>0.1124662163677117</v>
+        <v>0.02041500865920451</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
         <v>24</v>
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>1.210812666666667</v>
+        <v>0.316433</v>
       </c>
       <c r="H13">
-        <v>3.632438</v>
+        <v>0.9492990000000001</v>
       </c>
       <c r="I13">
-        <v>0.3580488689602556</v>
+        <v>0.0837908381466997</v>
       </c>
       <c r="J13">
-        <v>0.3580488689602556</v>
+        <v>0.0837908381466997</v>
       </c>
       <c r="K13">
         <v>2</v>
@@ -1237,28 +1237,276 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M13">
-        <v>0.001721</v>
+        <v>0.087368</v>
       </c>
       <c r="N13">
-        <v>0.005162999999999999</v>
+        <v>0.262104</v>
       </c>
       <c r="O13">
-        <v>0.004483444341203747</v>
+        <v>0.14944646921712</v>
       </c>
       <c r="P13">
-        <v>0.004483444341203747</v>
+        <v>0.14944646921712</v>
       </c>
       <c r="Q13">
-        <v>0.002083808599333333</v>
+        <v>0.027646118344</v>
       </c>
       <c r="R13">
-        <v>0.018754277394</v>
+        <v>0.248815065096</v>
       </c>
       <c r="S13">
-        <v>0.00160529217541426</v>
+        <v>0.01252224491376744</v>
       </c>
       <c r="T13">
-        <v>0.00160529217541426</v>
+        <v>0.01252224491376744</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>1.425688333333333</v>
+      </c>
+      <c r="H14">
+        <v>4.277065</v>
+      </c>
+      <c r="I14">
+        <v>0.3775194761164967</v>
+      </c>
+      <c r="J14">
+        <v>0.3775194761164967</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>0.09324366666666667</v>
+      </c>
+      <c r="N14">
+        <v>0.279731</v>
+      </c>
+      <c r="O14">
+        <v>0.1594970327830716</v>
+      </c>
+      <c r="P14">
+        <v>0.1594970327830716</v>
+      </c>
+      <c r="Q14">
+        <v>0.1329364077238889</v>
+      </c>
+      <c r="R14">
+        <v>1.196427669515</v>
+      </c>
+      <c r="S14">
+        <v>0.06021323625840088</v>
+      </c>
+      <c r="T14">
+        <v>0.06021323625840088</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>1.425688333333333</v>
+      </c>
+      <c r="H15">
+        <v>4.277065</v>
+      </c>
+      <c r="I15">
+        <v>0.3775194761164967</v>
+      </c>
+      <c r="J15">
+        <v>0.3775194761164967</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>0.261563</v>
+      </c>
+      <c r="N15">
+        <v>0.784689</v>
+      </c>
+      <c r="O15">
+        <v>0.4474140054463598</v>
+      </c>
+      <c r="P15">
+        <v>0.4474140054463597</v>
+      </c>
+      <c r="Q15">
+        <v>0.3729073175316667</v>
+      </c>
+      <c r="R15">
+        <v>3.356165857785</v>
+      </c>
+      <c r="S15">
+        <v>0.1689075009432931</v>
+      </c>
+      <c r="T15">
+        <v>0.1689075009432931</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>1.425688333333333</v>
+      </c>
+      <c r="H16">
+        <v>4.277065</v>
+      </c>
+      <c r="I16">
+        <v>0.3775194761164967</v>
+      </c>
+      <c r="J16">
+        <v>0.3775194761164967</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>0.142436</v>
+      </c>
+      <c r="N16">
+        <v>0.427308</v>
+      </c>
+      <c r="O16">
+        <v>0.2436424925534487</v>
+      </c>
+      <c r="P16">
+        <v>0.2436424925534487</v>
+      </c>
+      <c r="Q16">
+        <v>0.2030693434466667</v>
+      </c>
+      <c r="R16">
+        <v>1.82762409102</v>
+      </c>
+      <c r="S16">
+        <v>0.0919797861484954</v>
+      </c>
+      <c r="T16">
+        <v>0.09197978614849539</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>1.425688333333333</v>
+      </c>
+      <c r="H17">
+        <v>4.277065</v>
+      </c>
+      <c r="I17">
+        <v>0.3775194761164967</v>
+      </c>
+      <c r="J17">
+        <v>0.3775194761164967</v>
+      </c>
+      <c r="K17">
+        <v>2</v>
+      </c>
+      <c r="L17">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M17">
+        <v>0.087368</v>
+      </c>
+      <c r="N17">
+        <v>0.262104</v>
+      </c>
+      <c r="O17">
+        <v>0.14944646921712</v>
+      </c>
+      <c r="P17">
+        <v>0.14944646921712</v>
+      </c>
+      <c r="Q17">
+        <v>0.1245595383066667</v>
+      </c>
+      <c r="R17">
+        <v>1.12103584476</v>
+      </c>
+      <c r="S17">
+        <v>0.0564189527663073</v>
+      </c>
+      <c r="T17">
+        <v>0.05641895276630728</v>
       </c>
     </row>
   </sheetData>
